--- a/data/stat probs/skylar mays stat probs - condition.xlsx
+++ b/data/stat probs/skylar mays stat probs - condition.xlsx
@@ -19,20 +19,20 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0 before 2023 full" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 regular" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 full" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lac 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lac 2023 full" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sas 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sas 2023 full" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mem 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mem 2023 full" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lac 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lac 2023 full" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sas 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sas 2023 full" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mem 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mem 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="26" state="visible" r:id="rId26"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="min 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="min 2023 full" sheetId="28" state="visible" r:id="rId28"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sac 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
@@ -517,28 +517,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -1383,28 +1383,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2153,28 +2153,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2923,28 +2923,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -3630,7 +3630,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3693,10 +3693,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -3705,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -3731,10 +3731,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
         <v>100</v>
@@ -3763,10 +3763,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
         <v>100</v>
@@ -3775,10 +3775,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -3795,10 +3795,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
         <v>100</v>
@@ -3827,10 +3827,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
         <v>100</v>
@@ -4002,390 +4002,6 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>100</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>50</v>
-      </c>
-      <c r="H12" t="n">
-        <v>50</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>100</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>50</v>
-      </c>
-      <c r="H13" t="n">
-        <v>50</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>100</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>50</v>
-      </c>
-      <c r="H14" t="n">
-        <v>50</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>100</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>50</v>
-      </c>
-      <c r="D16" t="n">
-        <v>50</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>50</v>
-      </c>
-      <c r="D17" t="n">
-        <v>50</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>50</v>
-      </c>
-      <c r="D18" t="n">
-        <v>50</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>50</v>
-      </c>
-      <c r="D19" t="n">
-        <v>50</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>50</v>
-      </c>
-      <c r="D20" t="n">
-        <v>50</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>50</v>
-      </c>
-      <c r="D21" t="n">
-        <v>50</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>50</v>
-      </c>
-      <c r="D22" t="n">
-        <v>50</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>50</v>
-      </c>
-      <c r="D23" t="n">
-        <v>50</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4400,7 +4016,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4463,10 +4079,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -4475,16 +4091,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4501,10 +4117,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
         <v>100</v>
@@ -4533,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
         <v>100</v>
@@ -4545,10 +4161,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -4565,10 +4181,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
         <v>100</v>
@@ -4597,10 +4213,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
         <v>100</v>
@@ -4772,390 +4388,6 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>100</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>50</v>
-      </c>
-      <c r="H12" t="n">
-        <v>50</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>100</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>50</v>
-      </c>
-      <c r="H13" t="n">
-        <v>50</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>100</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>50</v>
-      </c>
-      <c r="H14" t="n">
-        <v>50</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>100</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>50</v>
-      </c>
-      <c r="D16" t="n">
-        <v>50</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>50</v>
-      </c>
-      <c r="D17" t="n">
-        <v>50</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>50</v>
-      </c>
-      <c r="D18" t="n">
-        <v>50</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>50</v>
-      </c>
-      <c r="D19" t="n">
-        <v>50</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>50</v>
-      </c>
-      <c r="D20" t="n">
-        <v>50</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>50</v>
-      </c>
-      <c r="D21" t="n">
-        <v>50</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>50</v>
-      </c>
-      <c r="D22" t="n">
-        <v>50</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>50</v>
-      </c>
-      <c r="D23" t="n">
-        <v>50</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
         <v>100</v>
       </c>
     </row>
@@ -5233,10 +4465,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -5245,16 +4477,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -5619,10 +4851,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -5631,16 +4863,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -5937,778 +5169,6 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>100</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>100</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>100</v>
-      </c>
-      <c r="G4" t="n">
-        <v>100</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="n">
-        <v>100</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>100</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>100</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>100</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>100</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>100</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>100</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>100</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>100</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>100</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>100</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>100</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>100</v>
-      </c>
-      <c r="G4" t="n">
-        <v>100</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="n">
-        <v>100</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>100</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>100</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>100</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>100</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>100</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>100</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>100</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>100</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>100</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6777,28 +5237,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -7566,6 +6026,1322 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>75</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>75</v>
+      </c>
+      <c r="F3" t="n">
+        <v>25</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>100</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>75</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+      <c r="J4" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="n">
+        <v>100</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25</v>
+      </c>
+      <c r="F6" t="n">
+        <v>75</v>
+      </c>
+      <c r="G6" t="n">
+        <v>100</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>25</v>
+      </c>
+      <c r="J6" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>100</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>25</v>
+      </c>
+      <c r="F8" t="n">
+        <v>75</v>
+      </c>
+      <c r="G8" t="n">
+        <v>100</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>25</v>
+      </c>
+      <c r="F9" t="n">
+        <v>75</v>
+      </c>
+      <c r="G9" t="n">
+        <v>100</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>25</v>
+      </c>
+      <c r="F10" t="n">
+        <v>75</v>
+      </c>
+      <c r="G10" t="n">
+        <v>50</v>
+      </c>
+      <c r="H10" t="n">
+        <v>50</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>100</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>50</v>
+      </c>
+      <c r="H11" t="n">
+        <v>50</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>75</v>
+      </c>
+      <c r="D12" t="n">
+        <v>25</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>75</v>
+      </c>
+      <c r="D13" t="n">
+        <v>25</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>50</v>
+      </c>
+      <c r="D14" t="n">
+        <v>50</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>50</v>
+      </c>
+      <c r="D15" t="n">
+        <v>50</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>25</v>
+      </c>
+      <c r="D16" t="n">
+        <v>75</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>25</v>
+      </c>
+      <c r="D17" t="n">
+        <v>75</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>25</v>
+      </c>
+      <c r="D18" t="n">
+        <v>75</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>25</v>
+      </c>
+      <c r="D19" t="n">
+        <v>75</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>25</v>
+      </c>
+      <c r="D20" t="n">
+        <v>75</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>25</v>
+      </c>
+      <c r="D21" t="n">
+        <v>75</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>25</v>
+      </c>
+      <c r="D22" t="n">
+        <v>75</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>25</v>
+      </c>
+      <c r="D23" t="n">
+        <v>75</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>25</v>
+      </c>
+      <c r="D24" t="n">
+        <v>75</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>25</v>
+      </c>
+      <c r="D25" t="n">
+        <v>75</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" t="n">
+        <v>75</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>100</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>100</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>100</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>100</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>100</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>100</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>100</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>100</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>100</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>100</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>100</v>
       </c>
     </row>
@@ -7643,28 +7419,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -8441,6 +8217,456 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>100</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>100</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>100</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>100</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>100</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>100</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>100</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>100</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>100</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8509,28 +8735,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -8547,10 +8773,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>100</v>
@@ -8579,10 +8805,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>100</v>
@@ -8591,10 +8817,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J4" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -8623,10 +8849,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J5" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -8745,10 +8971,10 @@
         <v>75</v>
       </c>
       <c r="G9" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -8777,10 +9003,10 @@
         <v>75</v>
       </c>
       <c r="G10" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H10" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -8809,10 +9035,10 @@
         <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H11" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -8829,10 +9055,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -8861,10 +9087,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -8893,10 +9119,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -8925,10 +9151,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -8957,10 +9183,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D16" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -9298,456 +9524,6 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>100</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>100</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="n">
-        <v>100</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>100</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>100</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>100</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>100</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>100</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>100</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>100</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>100</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>100</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
         <v>100</v>
       </c>
     </row>
@@ -9762,7 +9538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9825,28 +9601,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -9907,10 +9683,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -9927,10 +9703,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
         <v>100</v>
@@ -9939,10 +9715,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -9959,10 +9735,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G6" t="n">
         <v>100</v>
@@ -9971,10 +9747,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -9991,10 +9767,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G7" t="n">
         <v>100</v>
@@ -10023,10 +9799,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G8" t="n">
         <v>100</v>
@@ -10055,16 +9831,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G9" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -10087,16 +9863,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H10" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -10125,10 +9901,10 @@
         <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H11" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -10198,6 +9974,422 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>75</v>
+      </c>
+      <c r="D14" t="n">
+        <v>25</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>75</v>
+      </c>
+      <c r="D15" t="n">
+        <v>25</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>50</v>
+      </c>
+      <c r="D16" t="n">
+        <v>50</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>25</v>
+      </c>
+      <c r="D17" t="n">
+        <v>75</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>25</v>
+      </c>
+      <c r="D18" t="n">
+        <v>75</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>25</v>
+      </c>
+      <c r="D19" t="n">
+        <v>75</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>25</v>
+      </c>
+      <c r="D20" t="n">
+        <v>75</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>25</v>
+      </c>
+      <c r="D21" t="n">
+        <v>75</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>25</v>
+      </c>
+      <c r="D22" t="n">
+        <v>75</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>25</v>
+      </c>
+      <c r="D23" t="n">
+        <v>75</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>25</v>
+      </c>
+      <c r="D24" t="n">
+        <v>75</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>25</v>
+      </c>
+      <c r="D25" t="n">
+        <v>75</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" t="n">
+        <v>75</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>100</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
         <v>100</v>
       </c>
     </row>
@@ -10275,28 +10467,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -10357,10 +10549,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -10377,10 +10569,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>100</v>
@@ -10389,10 +10581,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -10409,10 +10601,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>100</v>
@@ -10421,10 +10613,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="J6" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -10441,10 +10633,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>100</v>
@@ -10473,10 +10665,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>100</v>
@@ -10505,16 +10697,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H9" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -10537,16 +10729,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -10575,10 +10767,10 @@
         <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -10659,10 +10851,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D14" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -10691,10 +10883,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D15" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -10723,10 +10915,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -10755,10 +10947,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D17" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -10787,10 +10979,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D18" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -10819,10 +11011,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D19" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -10851,10 +11043,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D20" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -10883,10 +11075,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D21" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -10915,10 +11107,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D22" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -10947,10 +11139,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D23" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -10979,10 +11171,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D24" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -11011,10 +11203,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D25" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -11043,10 +11235,10 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D26" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -11141,28 +11333,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -11223,10 +11415,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -11243,10 +11435,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>100</v>
@@ -11255,10 +11447,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -11275,10 +11467,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>100</v>
@@ -11287,10 +11479,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="J6" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -11307,10 +11499,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>100</v>
@@ -11339,10 +11531,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>100</v>
@@ -11371,16 +11563,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H9" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -11403,16 +11595,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -11441,10 +11633,10 @@
         <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -11525,10 +11717,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D14" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -11557,10 +11749,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D15" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -11589,10 +11781,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -11621,10 +11813,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D17" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -11653,10 +11845,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D18" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -11685,10 +11877,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D19" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -11717,10 +11909,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D20" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -11749,10 +11941,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D21" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -11781,10 +11973,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D22" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -11813,10 +12005,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D23" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -11845,10 +12037,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D24" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -11877,10 +12069,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D25" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -11909,10 +12101,10 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D26" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -12007,28 +12199,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -12873,28 +13065,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -13739,28 +13931,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -14253,28 +14445,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -14767,28 +14959,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -15313,28 +15505,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -16083,28 +16275,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -16629,28 +16821,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -17399,28 +17591,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -18265,28 +18457,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -19131,28 +19323,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -19901,28 +20093,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -20671,28 +20863,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
